--- a/PP1.xlsx
+++ b/PP1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worko\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worko\OneDrive\바탕 화면\새 폴더 (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608D1B91-4D57-429E-9421-D64C318EB3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79425A85-94F1-4E3F-A0DF-A6811C210C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11606" yWindow="506" windowWidth="18840" windowHeight="14271" xr2:uid="{65737F00-97D1-4402-ADE6-6888EF268042}"/>
+    <workbookView xWindow="13663" yWindow="840" windowWidth="18840" windowHeight="14271" xr2:uid="{65737F00-97D1-4402-ADE6-6888EF268042}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="16">
   <si>
     <t>이재명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>유승민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박근혜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박종선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E1BE32-E005-40C0-960F-19677E27298C}">
-  <dimension ref="A1:E340"/>
+  <dimension ref="A1:E370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="E345" sqref="E345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -6269,6 +6277,516 @@
         <v>42838</v>
       </c>
     </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A341">
+        <v>18</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341" t="s">
+        <v>14</v>
+      </c>
+      <c r="D341">
+        <v>49.4</v>
+      </c>
+      <c r="E341" s="1">
+        <v>41235</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A342">
+        <v>18</v>
+      </c>
+      <c r="B342">
+        <v>2</v>
+      </c>
+      <c r="C342" t="s">
+        <v>11</v>
+      </c>
+      <c r="D342">
+        <v>43.2</v>
+      </c>
+      <c r="E342" s="1">
+        <v>41235</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A343">
+        <v>18</v>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+      <c r="C343" t="s">
+        <v>15</v>
+      </c>
+      <c r="D343">
+        <v>0.4</v>
+      </c>
+      <c r="E343" s="1">
+        <v>41235</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A344">
+        <v>18</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344" t="s">
+        <v>14</v>
+      </c>
+      <c r="D344">
+        <v>45</v>
+      </c>
+      <c r="E344" s="1">
+        <v>41234</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A345">
+        <v>18</v>
+      </c>
+      <c r="B345">
+        <v>2</v>
+      </c>
+      <c r="C345" t="s">
+        <v>11</v>
+      </c>
+      <c r="D345">
+        <v>46</v>
+      </c>
+      <c r="E345" s="1">
+        <v>41234</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A346">
+        <v>18</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+      <c r="C346" t="s">
+        <v>15</v>
+      </c>
+      <c r="D346">
+        <v>0.2</v>
+      </c>
+      <c r="E346" s="1">
+        <v>41234</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A347">
+        <v>18</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347" t="s">
+        <v>14</v>
+      </c>
+      <c r="D347">
+        <v>43.4</v>
+      </c>
+      <c r="E347" s="1">
+        <v>41237</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A348">
+        <v>18</v>
+      </c>
+      <c r="B348">
+        <v>2</v>
+      </c>
+      <c r="C348" t="s">
+        <v>11</v>
+      </c>
+      <c r="D348">
+        <v>37.6</v>
+      </c>
+      <c r="E348" s="1">
+        <v>41237</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A349">
+        <v>18</v>
+      </c>
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349" t="s">
+        <v>15</v>
+      </c>
+      <c r="D349">
+        <v>0.1</v>
+      </c>
+      <c r="E349" s="1">
+        <v>41237</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A350">
+        <v>18</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350" t="s">
+        <v>14</v>
+      </c>
+      <c r="D350">
+        <v>48.9</v>
+      </c>
+      <c r="E350" s="1">
+        <v>41247</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A351">
+        <v>18</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351" t="s">
+        <v>11</v>
+      </c>
+      <c r="D351">
+        <v>42.1</v>
+      </c>
+      <c r="E351" s="1">
+        <v>41247</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A352">
+        <v>18</v>
+      </c>
+      <c r="B352">
+        <v>3</v>
+      </c>
+      <c r="C352" t="s">
+        <v>15</v>
+      </c>
+      <c r="D352">
+        <v>0.1</v>
+      </c>
+      <c r="E352" s="1">
+        <v>41247</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A353">
+        <v>18</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353" t="s">
+        <v>14</v>
+      </c>
+      <c r="D353">
+        <v>48.9</v>
+      </c>
+      <c r="E353" s="1">
+        <v>41246</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A354">
+        <v>18</v>
+      </c>
+      <c r="B354">
+        <v>2</v>
+      </c>
+      <c r="C354" t="s">
+        <v>11</v>
+      </c>
+      <c r="D354">
+        <v>42.8</v>
+      </c>
+      <c r="E354" s="1">
+        <v>41246</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A355">
+        <v>18</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355" t="s">
+        <v>15</v>
+      </c>
+      <c r="D355">
+        <v>0.2</v>
+      </c>
+      <c r="E355" s="1">
+        <v>41246</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A356">
+        <v>18</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356" t="s">
+        <v>14</v>
+      </c>
+      <c r="D356">
+        <v>43.5</v>
+      </c>
+      <c r="E356" s="1">
+        <v>41249</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A357">
+        <v>18</v>
+      </c>
+      <c r="B357">
+        <v>2</v>
+      </c>
+      <c r="C357" t="s">
+        <v>11</v>
+      </c>
+      <c r="D357">
+        <v>43.3</v>
+      </c>
+      <c r="E357" s="1">
+        <v>41249</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A358">
+        <v>18</v>
+      </c>
+      <c r="B358">
+        <v>3</v>
+      </c>
+      <c r="C358" t="s">
+        <v>15</v>
+      </c>
+      <c r="D358">
+        <v>0.1</v>
+      </c>
+      <c r="E358" s="1">
+        <v>41249</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A359">
+        <v>18</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359" t="s">
+        <v>14</v>
+      </c>
+      <c r="D359">
+        <v>42.9</v>
+      </c>
+      <c r="E359" s="1">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A360">
+        <v>18</v>
+      </c>
+      <c r="B360">
+        <v>2</v>
+      </c>
+      <c r="C360" t="s">
+        <v>11</v>
+      </c>
+      <c r="D360">
+        <v>43.7</v>
+      </c>
+      <c r="E360" s="1">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A361">
+        <v>18</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361" t="s">
+        <v>15</v>
+      </c>
+      <c r="D361">
+        <v>0.2</v>
+      </c>
+      <c r="E361" s="1">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A362">
+        <v>18</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362" t="s">
+        <v>14</v>
+      </c>
+      <c r="D362">
+        <v>44.3</v>
+      </c>
+      <c r="E362" s="1">
+        <v>41232</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A363">
+        <v>18</v>
+      </c>
+      <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="C363" t="s">
+        <v>11</v>
+      </c>
+      <c r="D363">
+        <v>43.3</v>
+      </c>
+      <c r="E363" s="1">
+        <v>41232</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A364">
+        <v>18</v>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+      <c r="C364" t="s">
+        <v>15</v>
+      </c>
+      <c r="D364">
+        <v>0.2</v>
+      </c>
+      <c r="E364" s="1">
+        <v>41232</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A365">
+        <v>18</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365" t="s">
+        <v>14</v>
+      </c>
+      <c r="D365">
+        <v>48.8</v>
+      </c>
+      <c r="E365" s="1">
+        <v>41233</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A366">
+        <v>18</v>
+      </c>
+      <c r="B366">
+        <v>2</v>
+      </c>
+      <c r="C366" t="s">
+        <v>11</v>
+      </c>
+      <c r="D366">
+        <v>43.3</v>
+      </c>
+      <c r="E366" s="1">
+        <v>41233</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A367">
+        <v>18</v>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+      <c r="C367" t="s">
+        <v>15</v>
+      </c>
+      <c r="D367">
+        <v>0.1</v>
+      </c>
+      <c r="E367" s="1">
+        <v>41233</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A368">
+        <v>18</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368" t="s">
+        <v>14</v>
+      </c>
+      <c r="D368">
+        <v>44.6</v>
+      </c>
+      <c r="E368" s="1">
+        <v>41231</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A369">
+        <v>18</v>
+      </c>
+      <c r="B369">
+        <v>2</v>
+      </c>
+      <c r="C369" t="s">
+        <v>11</v>
+      </c>
+      <c r="D369">
+        <v>39.9</v>
+      </c>
+      <c r="E369" s="1">
+        <v>41231</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A370">
+        <v>18</v>
+      </c>
+      <c r="B370">
+        <v>3</v>
+      </c>
+      <c r="C370" t="s">
+        <v>15</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370" s="1">
+        <v>41231</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
